--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS133_RegisTamPeserta.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS133_RegisTamPeserta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF2E574-7D26-4568-A728-2AB9776CEC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE7898F-EACF-4848-9C08-23C8B2ECE5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKKPS133-001" sheetId="4" r:id="rId1"/>
@@ -135,23 +135,23 @@
     <t>KEP.TRX.436 Lanjutkan ke Verifikasi</t>
   </si>
   <si>
+    <t>NOMOR_REKENING</t>
+  </si>
+  <si>
+    <t>EXPLAIN</t>
+  </si>
+  <si>
+    <t>Tambahkan Peserta ke Kolektif</t>
+  </si>
+  <si>
     <t>Username : 30603;
 Password : bni1234;
 Role : 10 - Asisten Settlement;
 Keterangan Perubahan : KEP.TRX.436 Pindah;
 Pilih Perusahaan : 000000982;
-No. Rekening : 790854187;
+No. Rekening : 790850353;
 Status Register : 1 : Lanjutkan ke Verifikasi;
 Keterangan Register : KEP.TRX.436 Lanjutkan ke Verifikasi</t>
-  </si>
-  <si>
-    <t>NOMOR_REKENING</t>
-  </si>
-  <si>
-    <t>EXPLAIN</t>
-  </si>
-  <si>
-    <t>Tambahkan Peserta ke Kolektif</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A75AAA4-F28F-45B6-8D73-FB1F2606A1FB}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
@@ -618,7 +618,7 @@
         <v>21</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>22</v>
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="140.25" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
         <v>31</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A54F0-D01B-49C0-BB41-F0FC7D2164BA}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +793,7 @@
         <v>21</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>22</v>
@@ -802,7 +802,7 @@
         <v>23</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="140.25" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G2" s="3">
         <v>30603</v>
@@ -852,7 +852,7 @@
         <v>30</v>
       </c>
       <c r="P2" s="2">
-        <v>790854187</v>
+        <v>790850353</v>
       </c>
       <c r="Q2" s="2">
         <v>1</v>
@@ -861,7 +861,7 @@
         <v>34</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
